--- a/final_data_pipeline/output/311514_elec_options.xlsx
+++ b/final_data_pipeline/output/311514_elec_options.xlsx
@@ -798,7 +798,7 @@
         <v>72</v>
       </c>
       <c r="AD2">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AE2">
         <v>8000</v>
@@ -893,7 +893,7 @@
         <v>72</v>
       </c>
       <c r="AD3">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AE3">
         <v>8000</v>
@@ -988,7 +988,7 @@
         <v>72</v>
       </c>
       <c r="AD4">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AE4">
         <v>8000</v>
@@ -1083,7 +1083,7 @@
         <v>72</v>
       </c>
       <c r="AD5">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AE5">
         <v>8000</v>
@@ -1178,7 +1178,7 @@
         <v>72</v>
       </c>
       <c r="AD6">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AE6">
         <v>8000</v>
@@ -1273,7 +1273,7 @@
         <v>72</v>
       </c>
       <c r="AD7">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AE7">
         <v>8000</v>
@@ -1368,7 +1368,7 @@
         <v>72</v>
       </c>
       <c r="AD8">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AE8">
         <v>8000</v>
@@ -1463,7 +1463,7 @@
         <v>72</v>
       </c>
       <c r="AD9">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AE9">
         <v>8000</v>
@@ -1558,7 +1558,7 @@
         <v>72</v>
       </c>
       <c r="AD10">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AE10">
         <v>8000</v>
@@ -1653,7 +1653,7 @@
         <v>72</v>
       </c>
       <c r="AD11">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AE11">
         <v>8000</v>
@@ -1748,7 +1748,7 @@
         <v>72</v>
       </c>
       <c r="AD12">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE12">
         <v>8000</v>
@@ -1843,7 +1843,7 @@
         <v>72</v>
       </c>
       <c r="AD13">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE13">
         <v>8000</v>
@@ -1938,7 +1938,7 @@
         <v>72</v>
       </c>
       <c r="AD14">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE14">
         <v>8000</v>
@@ -2033,7 +2033,7 @@
         <v>72</v>
       </c>
       <c r="AD15">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE15">
         <v>8000</v>
@@ -2128,7 +2128,7 @@
         <v>72</v>
       </c>
       <c r="AD16">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE16">
         <v>8000</v>
@@ -4123,7 +4123,7 @@
         <v>72</v>
       </c>
       <c r="AD37">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE37">
         <v>8000</v>
@@ -4218,7 +4218,7 @@
         <v>72</v>
       </c>
       <c r="AD38">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE38">
         <v>8000</v>
@@ -4313,7 +4313,7 @@
         <v>72</v>
       </c>
       <c r="AD39">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE39">
         <v>8000</v>
@@ -4408,7 +4408,7 @@
         <v>72</v>
       </c>
       <c r="AD40">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE40">
         <v>8000</v>
@@ -4503,7 +4503,7 @@
         <v>72</v>
       </c>
       <c r="AD41">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE41">
         <v>8000</v>
@@ -4598,7 +4598,7 @@
         <v>72</v>
       </c>
       <c r="AD42">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE42">
         <v>8000</v>
@@ -4693,7 +4693,7 @@
         <v>72</v>
       </c>
       <c r="AD43">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE43">
         <v>8000</v>
@@ -4788,7 +4788,7 @@
         <v>72</v>
       </c>
       <c r="AD44">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE44">
         <v>8000</v>
@@ -4883,7 +4883,7 @@
         <v>72</v>
       </c>
       <c r="AD45">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE45">
         <v>8000</v>
@@ -4978,7 +4978,7 @@
         <v>72</v>
       </c>
       <c r="AD46">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE46">
         <v>8000</v>
@@ -5548,7 +5548,7 @@
         <v>72</v>
       </c>
       <c r="AD52">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE52">
         <v>8000</v>
@@ -5643,7 +5643,7 @@
         <v>72</v>
       </c>
       <c r="AD53">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE53">
         <v>8000</v>
@@ -5738,7 +5738,7 @@
         <v>72</v>
       </c>
       <c r="AD54">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE54">
         <v>8000</v>
@@ -5833,7 +5833,7 @@
         <v>72</v>
       </c>
       <c r="AD55">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE55">
         <v>8000</v>
@@ -5928,7 +5928,7 @@
         <v>72</v>
       </c>
       <c r="AD56">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE56">
         <v>8000</v>
@@ -6023,7 +6023,7 @@
         <v>72</v>
       </c>
       <c r="AD57">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AE57">
         <v>8000</v>
@@ -6118,7 +6118,7 @@
         <v>72</v>
       </c>
       <c r="AD58">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AE58">
         <v>8000</v>
@@ -6213,7 +6213,7 @@
         <v>72</v>
       </c>
       <c r="AD59">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AE59">
         <v>8000</v>
@@ -6308,7 +6308,7 @@
         <v>72</v>
       </c>
       <c r="AD60">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AE60">
         <v>8000</v>
@@ -6403,7 +6403,7 @@
         <v>72</v>
       </c>
       <c r="AD61">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AE61">
         <v>8000</v>
@@ -6498,7 +6498,7 @@
         <v>72</v>
       </c>
       <c r="AD62">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AE62">
         <v>8000</v>
@@ -6593,7 +6593,7 @@
         <v>72</v>
       </c>
       <c r="AD63">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AE63">
         <v>8000</v>
@@ -6688,7 +6688,7 @@
         <v>72</v>
       </c>
       <c r="AD64">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AE64">
         <v>8000</v>
@@ -6783,7 +6783,7 @@
         <v>72</v>
       </c>
       <c r="AD65">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AE65">
         <v>8000</v>
@@ -6878,7 +6878,7 @@
         <v>72</v>
       </c>
       <c r="AD66">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AE66">
         <v>8000</v>
@@ -7923,7 +7923,7 @@
         <v>72</v>
       </c>
       <c r="AD77">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE77">
         <v>8000</v>
@@ -8018,7 +8018,7 @@
         <v>72</v>
       </c>
       <c r="AD78">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE78">
         <v>8000</v>
@@ -8113,7 +8113,7 @@
         <v>72</v>
       </c>
       <c r="AD79">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE79">
         <v>8000</v>
@@ -8208,7 +8208,7 @@
         <v>72</v>
       </c>
       <c r="AD80">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE80">
         <v>8000</v>
@@ -8303,7 +8303,7 @@
         <v>72</v>
       </c>
       <c r="AD81">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE81">
         <v>8000</v>
@@ -8873,7 +8873,7 @@
         <v>72</v>
       </c>
       <c r="AD87">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE87">
         <v>8000</v>
@@ -8968,7 +8968,7 @@
         <v>72</v>
       </c>
       <c r="AD88">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE88">
         <v>8000</v>
@@ -9063,7 +9063,7 @@
         <v>72</v>
       </c>
       <c r="AD89">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE89">
         <v>8000</v>
@@ -9158,7 +9158,7 @@
         <v>72</v>
       </c>
       <c r="AD90">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE90">
         <v>8000</v>
@@ -9253,7 +9253,7 @@
         <v>72</v>
       </c>
       <c r="AD91">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE91">
         <v>8000</v>
